--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>firstName</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>San</t>
+  </si>
+  <si>
+    <t>ert</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,8 +398,8 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>98765</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
